--- a/downloaded_files/EECS406_Lecture-35325.xlsx
+++ b/downloaded_files/EECS406_Lecture-35325.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Maryam Osama Abdel Maguid Abdel Salam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي محمد مصطفي نوح ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mustafa Mohammed Mustafa Noah</x:t>
   </x:si>
   <x:si>
     <x:t>1210030</x:t>
@@ -290,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1033,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.7656413194</x:v>
+        <x:v>45928.803253588</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1065,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.7771102199</x:v>
+        <x:v>45912.7656413194</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1097,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.7585133449</x:v>
+        <x:v>45912.7771102199</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1129,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.7785996528</x:v>
+        <x:v>45912.7585133449</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1161,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4394832176</x:v>
+        <x:v>45912.7785996528</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1178,6 +1187,38 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45906.4394832176</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS406_Lecture-35325.xlsx
+++ b/downloaded_files/EECS406_Lecture-35325.xlsx
@@ -111,7 +111,7 @@
     <x:t>عمر محمد رءوف شاذلى</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Mohamed Raouf</x:t>
+    <x:t>Omar Mohamed Raouf Shazly</x:t>
   </x:si>
   <x:si>
     <x:t>1210411</x:t>
